--- a/data/trans_dic/P3A$yo-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$yo-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7126587038176021</v>
+        <v>0.7126587038176022</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9212247364047134</v>
+        <v>0.9212247364047133</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8106262004741607</v>
+        <v>0.8106262004741608</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6728098843944322</v>
+        <v>0.6690090756552847</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8889590533787023</v>
+        <v>0.890936227214543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7809509926222988</v>
+        <v>0.7846189329499987</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7509543392168838</v>
+        <v>0.7491811253312706</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9433580138418786</v>
+        <v>0.9441796033854777</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8329771041108197</v>
+        <v>0.83453852428513</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6941086225725005</v>
+        <v>0.6941086225725003</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9411038273092517</v>
+        <v>0.9411038273092516</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.8094828616199723</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6465520487724056</v>
+        <v>0.645083052664605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9073657844206053</v>
+        <v>0.914041159591183</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7815803811689069</v>
+        <v>0.7804166211781062</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7372850442447532</v>
+        <v>0.7355058843727946</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9596926466691384</v>
+        <v>0.9603610551805795</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8360146910419094</v>
+        <v>0.8345071615005087</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.6492433601627541</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9108231617800822</v>
+        <v>0.910823161780082</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7234935730214972</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6071319662324205</v>
+        <v>0.6020909425056674</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8510425578388687</v>
+        <v>0.8441283468679971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6851380508027025</v>
+        <v>0.6826716464481289</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6965532144188222</v>
+        <v>0.6939334750196187</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.945543509187495</v>
+        <v>0.9467695878673034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7582864057276716</v>
+        <v>0.7560064955099876</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.6675972025419727</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.947913921623178</v>
+        <v>0.9479139216231781</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7887238427945069</v>
+        <v>0.7887238427945071</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.637602903549073</v>
+        <v>0.6347809606105257</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9321756889203737</v>
+        <v>0.9326274668480765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7681373332081547</v>
+        <v>0.7699223409331645</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6953551884658332</v>
+        <v>0.6977402031103542</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9606876960302111</v>
+        <v>0.9597957640006194</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8070336061353681</v>
+        <v>0.8094777520792792</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6267871652218885</v>
+        <v>0.6267871652218884</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9414989135254075</v>
+        <v>0.9414989135254076</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8137157594672192</v>
+        <v>0.813715759467219</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5827450295938268</v>
+        <v>0.580573266643804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9289303821267357</v>
+        <v>0.9278453911564375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7923908493646443</v>
+        <v>0.7932431342994066</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6727492845902656</v>
+        <v>0.6699664646995132</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9528900325910614</v>
+        <v>0.953060173635613</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8332445291723637</v>
+        <v>0.8345459511016908</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.4453241577903595</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8096521951877105</v>
+        <v>0.8096521951877106</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.7297372421451154</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.350699058579036</v>
+        <v>0.3426141280147866</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7759208241076798</v>
+        <v>0.7766080358408659</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6917064648892749</v>
+        <v>0.6916759852602274</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5385975556214986</v>
+        <v>0.5471053652402997</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8383939594004803</v>
+        <v>0.8375903211675034</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7648644531422177</v>
+        <v>0.7613084370128472</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.9080438249562683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7844496394001852</v>
+        <v>0.7844496394001853</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6361183810886513</v>
+        <v>0.6368976151871211</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8974897080247828</v>
+        <v>0.8952966192207911</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7732595879621189</v>
+        <v>0.7725177088569254</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6738488709621302</v>
+        <v>0.6724037630072535</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9180260720165735</v>
+        <v>0.9167460642617103</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7949187447364022</v>
+        <v>0.7950815861976228</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>370461</v>
+        <v>368368</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>433576</v>
+        <v>434540</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>810902</v>
+        <v>814711</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>413489</v>
+        <v>412513</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>460108</v>
+        <v>460508</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>864923</v>
+        <v>866545</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>312109</v>
+        <v>311400</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>383945</v>
+        <v>386770</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>708011</v>
+        <v>706957</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>355909</v>
+        <v>355050</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>406087</v>
+        <v>406370</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>757321</v>
+        <v>755956</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>286331</v>
+        <v>283953</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>159085</v>
+        <v>157792</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>451191</v>
+        <v>449567</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>328503</v>
+        <v>327267</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>176750</v>
+        <v>176979</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>499362</v>
+        <v>497861</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>721666</v>
+        <v>718472</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>802800</v>
+        <v>803189</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1530939</v>
+        <v>1534497</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>787033</v>
+        <v>789732</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>827355</v>
+        <v>826587</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1608462</v>
+        <v>1613333</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>330978</v>
+        <v>329745</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>771802</v>
+        <v>770900</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1108407</v>
+        <v>1109600</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>382097</v>
+        <v>380517</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>791709</v>
+        <v>791850</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1165554</v>
+        <v>1167375</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>83196</v>
+        <v>81278</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>655095</v>
+        <v>655675</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>748087</v>
+        <v>748054</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>127770</v>
+        <v>129789</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>707840</v>
+        <v>707162</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>827208</v>
+        <v>823362</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2189515</v>
+        <v>2192197</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3261610</v>
+        <v>3253640</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5471693</v>
+        <v>5466443</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2319383</v>
+        <v>2314409</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3336243</v>
+        <v>3331591</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5624956</v>
+        <v>5626109</v>
       </c>
     </row>
     <row r="32">
